--- a/MyLottery/Docs/To do list.xlsx
+++ b/MyLottery/Docs/To do list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>登陆功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据库结构初始化功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>写日志功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,10 +69,6 @@
     <t>已完成</t>
   </si>
   <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>处理成功以后的页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,55 +81,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户注销功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未处理异常自动记录日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误异常页面处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投注时判断是否登录系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误异常处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观层对异常的日志记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩票投注流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩票倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>判断投注结束时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户注销功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未处理异常自动记录日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误异常页面处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投注时判断是否登录系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误异常处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观层对异常的日志记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩票投注流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩票倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击代购彩票以后的流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +178,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -364,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,32 +425,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -764,12 +773,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>3</v>
@@ -784,16 +793,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="24"/>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="15"/>
@@ -808,7 +817,7 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -825,14 +834,14 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
         <v>40327</v>
@@ -842,14 +851,14 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7">
         <v>40327</v>
@@ -857,7 +866,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -876,21 +885,21 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>40327</v>
@@ -900,29 +909,31 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7">
-        <v>40327</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4">
+        <v>40327</v>
+      </c>
+      <c r="D10" s="4">
+        <v>40328</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4">
         <v>40327</v>
@@ -932,40 +943,40 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="7">
-        <v>40327</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="C12" s="29">
+        <v>40327</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4">
         <v>40327</v>
@@ -975,7 +986,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -1009,21 +1020,21 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4">
         <v>40327</v>
@@ -1033,14 +1044,14 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
         <v>40327</v>
@@ -1055,7 +1066,7 @@
     <row r="20" spans="1:7" ht="15" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>40327</v>
@@ -1070,7 +1081,7 @@
     <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21" s="17"/>
       <c r="B21" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="7">
         <v>40327</v>
@@ -1082,31 +1093,23 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="26"/>
+    <row r="22" spans="1:7" ht="15" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7">
-        <v>40327</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="6"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="18"/>
@@ -1144,32 +1147,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
